--- a/Model Parameter Names.xlsx
+++ b/Model Parameter Names.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Yale\Galvani Lab\AMR\Carbapenem-Resistance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Carbapenem\Carbapenem-Resistance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9620" windowHeight="3250" xr2:uid="{5C349F03-A810-4325-A0DC-B3A7C3E1F4A9}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9615" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Parameter</t>
   </si>
@@ -102,13 +102,134 @@
   </si>
   <si>
     <t>CBP consumption for pneumonia, for each pathogen</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>pcbp</t>
+  </si>
+  <si>
+    <t>pICU</t>
+  </si>
+  <si>
+    <t>rICU</t>
+  </si>
+  <si>
+    <r>
+      <t>proportion of resistance from ICU/non-ICU (for each pathogen) {{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA,AB,KP,EA},{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-ICU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PA,AB,KP,EA}}</t>
+    </r>
+  </si>
+  <si>
+    <t>tlength</t>
+  </si>
+  <si>
+    <t>ageD</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence of disease </t>
+  </si>
+  <si>
+    <t>proportion of patients divided among Icu and non-ICU</t>
+  </si>
+  <si>
+    <t>proportion of total CBP prescription to patients divided among ICU and non-ICU</t>
+  </si>
+  <si>
+    <t>average age at death {ICU, non-ICU}</t>
+  </si>
+  <si>
+    <t>utility weight for condition {ICU, non-ICU}</t>
+  </si>
+  <si>
+    <t>prodC</t>
+  </si>
+  <si>
+    <t>wardC</t>
+  </si>
+  <si>
+    <t>indirect productivity costs due to illness {ICU, non-ICU}</t>
+  </si>
+  <si>
+    <t>cost of bed/day {ICU, non-ICU} (USD)</t>
+  </si>
+  <si>
+    <t>treatment length {ICU, non-ICU} (days)</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>proportion of patients receiving monotherapy v. combination therapy {{ICU monotherapy}, {ICU combo therapy}, {non-ICU monotherapy}, {non-ICU combo therapy}} (for each pathogen)</t>
+  </si>
+  <si>
+    <t>mR</t>
+  </si>
+  <si>
+    <t>losR</t>
+  </si>
+  <si>
+    <t>mS</t>
+  </si>
+  <si>
+    <t>losS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">associated mortality for resistant strains under {CBP mono therapy, CBP combo therapy </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +239,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -461,20 +591,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5AC3-6A1A-43DF-A24A-110ED04A954B}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="168.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -490,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -498,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -506,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -514,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -522,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -530,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -538,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -546,7 +676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -554,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -562,7 +692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -570,7 +700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -578,7 +708,111 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>